--- a/Electrical Power System_EPS/docs/eps pinout.xlsx
+++ b/Electrical Power System_EPS/docs/eps pinout.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hites\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861BEA9-3153-4680-A9C7-FAD10627E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A569A18B-E383-49A9-BA52-A85C53F09556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8760DEEC-B900-41AB-ADCB-B24D9F274511}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{8760DEEC-B900-41AB-ADCB-B24D9F274511}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
     <sheet name="SRIC" sheetId="1" r:id="rId2"/>
     <sheet name="PMIC" sheetId="2" r:id="rId3"/>
     <sheet name="PMIC ordered" sheetId="5" r:id="rId4"/>
+    <sheet name="Uart Protocol data" sheetId="6" r:id="rId5"/>
+    <sheet name="PWR EN" sheetId="8" r:id="rId6"/>
+    <sheet name="ADC BUFFER" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="330">
   <si>
     <t>ADC1_IN5</t>
   </si>
@@ -249,12 +252,6 @@
     <t>PB09</t>
   </si>
   <si>
-    <t>ADC1_IN7</t>
-  </si>
-  <si>
-    <t>ADC1_IN8</t>
-  </si>
-  <si>
     <t>ADC1_IN11</t>
   </si>
   <si>
@@ -381,33 +378,18 @@
     <t>USB_OTG_FS_ID</t>
   </si>
   <si>
-    <t>EN_5V_BOOST_EPS</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
     <t>WAKE</t>
   </si>
   <si>
-    <t>EN_MCU_3V3_EPS</t>
-  </si>
-  <si>
-    <t>EN_MCU_BUCK_EPS</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
-    <t>EN_3V3_2_EPS</t>
-  </si>
-  <si>
     <t>PD11</t>
   </si>
   <si>
-    <t>EN_3V3_1_BUCK_EPS</t>
-  </si>
-  <si>
     <t>DEBUG_LED1</t>
   </si>
   <si>
@@ -423,27 +405,12 @@
     <t>DEBUG_LED5</t>
   </si>
   <si>
-    <t>EN_5V_EPS</t>
-  </si>
-  <si>
-    <t>EN_UNREG1_EPS</t>
-  </si>
-  <si>
-    <t>EN_UNREG2_EPS</t>
-  </si>
-  <si>
     <t>PE14</t>
   </si>
   <si>
-    <t>EN_3V3_1_EPS</t>
-  </si>
-  <si>
     <t>PE15</t>
   </si>
   <si>
-    <t>EN_3V3_2_BUCK_EPS</t>
-  </si>
-  <si>
     <t>PE01</t>
   </si>
   <si>
@@ -778,13 +745,298 @@
   </si>
   <si>
     <t>Uart EPS -SR</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>ADCS</t>
+  </si>
+  <si>
+    <t>TEL1</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>Uart SR_EPS</t>
+  </si>
+  <si>
+    <t>PMIC</t>
+  </si>
+  <si>
+    <t>SRIC</t>
+  </si>
+  <si>
+    <t>TEL2</t>
+  </si>
+  <si>
+    <t>0xBA</t>
+  </si>
+  <si>
+    <t>0xBC</t>
+  </si>
+  <si>
+    <t>0xBD</t>
+  </si>
+  <si>
+    <t>0xBE</t>
+  </si>
+  <si>
+    <t>0xBF</t>
+  </si>
+  <si>
+    <t>0xEF</t>
+  </si>
+  <si>
+    <t>RECEIVER</t>
+  </si>
+  <si>
+    <t>0xAB</t>
+  </si>
+  <si>
+    <t>0xCB</t>
+  </si>
+  <si>
+    <t>0xDB</t>
+  </si>
+  <si>
+    <t>0xEB</t>
+  </si>
+  <si>
+    <t>0xFB</t>
+  </si>
+  <si>
+    <t>0xFE</t>
+  </si>
+  <si>
+    <t>channel_3</t>
+  </si>
+  <si>
+    <t>channel_0</t>
+  </si>
+  <si>
+    <t>channel_1</t>
+  </si>
+  <si>
+    <t>channel_2</t>
+  </si>
+  <si>
+    <t>channel_4</t>
+  </si>
+  <si>
+    <t>channel_5</t>
+  </si>
+  <si>
+    <t>channel_6</t>
+  </si>
+  <si>
+    <t>channel_7</t>
+  </si>
+  <si>
+    <t>channel_8</t>
+  </si>
+  <si>
+    <t>channel_9</t>
+  </si>
+  <si>
+    <t>channel_b</t>
+  </si>
+  <si>
+    <t>channel_c</t>
+  </si>
+  <si>
+    <t>channel_d</t>
+  </si>
+  <si>
+    <t>channel_e</t>
+  </si>
+  <si>
+    <t>channel_f</t>
+  </si>
+  <si>
+    <t>channel_a</t>
+  </si>
+  <si>
+    <t>crc_low</t>
+  </si>
+  <si>
+    <t>crc_high</t>
+  </si>
+  <si>
+    <t>EN_3V3_1_BUCK</t>
+  </si>
+  <si>
+    <t>EN_3V3_1</t>
+  </si>
+  <si>
+    <t>EN_3V3_2_BUCK</t>
+  </si>
+  <si>
+    <t>EN_3V3_2</t>
+  </si>
+  <si>
+    <t>EN_5V_BOOST</t>
+  </si>
+  <si>
+    <t>EN_5V</t>
+  </si>
+  <si>
+    <t>EN_UNREG1</t>
+  </si>
+  <si>
+    <t>EN_UNREG2</t>
+  </si>
+  <si>
+    <t>EN_MCU_3V3</t>
+  </si>
+  <si>
+    <t>EN_MCU_BUCK</t>
+  </si>
+  <si>
+    <t>HEADER1</t>
+  </si>
+  <si>
+    <t>HEADER2</t>
+  </si>
+  <si>
+    <t>PMIC_2_SRIC</t>
+  </si>
+  <si>
+    <t>OBC_2_SRIC</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>SRIC_2_PMIC</t>
+  </si>
+  <si>
+    <t>SRIC_2_OBC</t>
+  </si>
+  <si>
+    <t>BIT_6</t>
+  </si>
+  <si>
+    <t>BIT_7</t>
+  </si>
+  <si>
+    <t>BIT_5</t>
+  </si>
+  <si>
+    <t>BIT_4</t>
+  </si>
+  <si>
+    <t>BIT_3</t>
+  </si>
+  <si>
+    <t>BIT_2</t>
+  </si>
+  <si>
+    <t>BIT_1</t>
+  </si>
+  <si>
+    <t>BIT_0</t>
+  </si>
+  <si>
+    <t>EN PWR</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>OBC_2_PMIC</t>
+  </si>
+  <si>
+    <t>PMIC_2_OBC</t>
+  </si>
+  <si>
+    <t>nEN_EPS_3V3</t>
+  </si>
+  <si>
+    <t>ADC1_IN05</t>
+  </si>
+  <si>
+    <t>ADC1_IN06</t>
+  </si>
+  <si>
+    <t>ADC1_IN07</t>
+  </si>
+  <si>
+    <t>ADC1_IN08</t>
+  </si>
+  <si>
+    <t>ADC1_IN09</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>VREFINT</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>EN_3V3_1_BUCK_PM</t>
+  </si>
+  <si>
+    <t>EN_3V3_1_PM</t>
+  </si>
+  <si>
+    <t>EN_3V3_2_BUCK_PM</t>
+  </si>
+  <si>
+    <t>EN_3V3_2_PM</t>
+  </si>
+  <si>
+    <t>EN_5V_BOOST_PM</t>
+  </si>
+  <si>
+    <t>EN_5V_PM</t>
+  </si>
+  <si>
+    <t>EN_MCU_3V3_PM</t>
+  </si>
+  <si>
+    <t>EN_MCU_BUCK_PM</t>
+  </si>
+  <si>
+    <t>EN_UNREG1_PM</t>
+  </si>
+  <si>
+    <t>EN_UNREG2_PM</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>PMIC 2 SRIC</t>
+  </si>
+  <si>
+    <t>OBC 2 SRIC</t>
+  </si>
+  <si>
+    <t>OBC 2 PMIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +1087,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="13">
@@ -924,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1050,6 +1314,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1373,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88DC635-82EF-465C-9C50-566320A03201}">
   <dimension ref="A1:XFC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1394,70 +1683,70 @@
   <sheetData>
     <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E2" s="7">
         <v>45818</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" s="10"/>
@@ -9653,10 +9942,10 @@
     </row>
     <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -9668,63 +9957,63 @@
     </row>
     <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A9" s="30" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -9740,7 +10029,7 @@
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9754,19 +10043,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -9778,10 +10067,10 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -9793,10 +10082,10 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
@@ -9808,10 +10097,10 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
@@ -9823,10 +10112,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
@@ -9838,10 +10127,10 @@
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
@@ -9853,10 +10142,10 @@
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
@@ -9868,10 +10157,10 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
@@ -9883,10 +10172,10 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
@@ -9899,7 +10188,7 @@
       <c r="D11" s="28"/>
       <c r="E11" s="5"/>
       <c r="F11" s="19" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
@@ -9912,7 +10201,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="5"/>
       <c r="F12" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
@@ -9925,7 +10214,7 @@
       <c r="D13" s="28"/>
       <c r="E13" s="5"/>
       <c r="F13" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
@@ -9937,7 +10226,7 @@
       </c>
       <c r="D14" s="28"/>
       <c r="F14" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
@@ -9949,7 +10238,7 @@
       </c>
       <c r="D15" s="28"/>
       <c r="F15" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
@@ -9961,7 +10250,7 @@
       </c>
       <c r="D16" s="28"/>
       <c r="F16" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
@@ -9973,7 +10262,7 @@
       </c>
       <c r="D17" s="28"/>
       <c r="F17" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
@@ -9985,7 +10274,7 @@
       </c>
       <c r="D18" s="28"/>
       <c r="F18" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
@@ -9997,7 +10286,7 @@
       </c>
       <c r="D19" s="28"/>
       <c r="F19" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
@@ -10009,7 +10298,7 @@
       </c>
       <c r="D20" s="28"/>
       <c r="F20" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
@@ -10021,7 +10310,7 @@
       </c>
       <c r="D21" s="28"/>
       <c r="F21" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
@@ -10033,7 +10322,7 @@
       </c>
       <c r="D22" s="28"/>
       <c r="F22" s="38" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
@@ -10083,38 +10372,38 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" s="39" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" s="39" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="39" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
@@ -10126,7 +10415,7 @@
       </c>
       <c r="D31" s="29"/>
       <c r="F31" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
@@ -10138,7 +10427,7 @@
       </c>
       <c r="D32" s="29"/>
       <c r="F32" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
@@ -10150,7 +10439,7 @@
       </c>
       <c r="D33" s="29"/>
       <c r="F33" s="38" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
@@ -10162,7 +10451,7 @@
       </c>
       <c r="D34" s="29"/>
       <c r="F34" s="38" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
@@ -10174,7 +10463,7 @@
       </c>
       <c r="D35" s="29"/>
       <c r="F35" s="38" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
@@ -10186,7 +10475,7 @@
       </c>
       <c r="D36" s="29"/>
       <c r="F36" s="38" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
@@ -10198,6 +10487,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10205,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DF08FA-EC6D-4E13-A87E-07944176BECD}">
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10222,19 +10512,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -10242,13 +10532,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -10256,13 +10546,13 @@
         <v>59</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
@@ -10270,41 +10560,41 @@
         <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
@@ -10312,13 +10602,13 @@
         <v>63</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
@@ -10326,13 +10616,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
@@ -10340,13 +10630,13 @@
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
@@ -10354,13 +10644,13 @@
         <v>54</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
@@ -10368,13 +10658,13 @@
         <v>55</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
@@ -10382,13 +10672,13 @@
         <v>56</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
@@ -10396,103 +10686,103 @@
         <v>57</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="31" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="31" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="32" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="32" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
@@ -10500,16 +10790,16 @@
         <v>35</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
@@ -10517,16 +10807,16 @@
         <v>37</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
@@ -10534,13 +10824,13 @@
         <v>66</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
@@ -10548,168 +10838,168 @@
         <v>69</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="34" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="34" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="34" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="34" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="34" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
@@ -10717,153 +11007,153 @@
         <v>65</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="34" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="34" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" s="34" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="34" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
@@ -10907,13 +11197,13 @@
         <v>39</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
@@ -10921,27 +11211,27 @@
         <v>41</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
@@ -10953,7 +11243,7 @@
       </c>
       <c r="D53" s="19"/>
       <c r="F53" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
@@ -10965,19 +11255,19 @@
       </c>
       <c r="D54" s="19"/>
       <c r="F54" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="19" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="19"/>
       <c r="F55" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
@@ -10989,117 +11279,117 @@
       </c>
       <c r="D56" s="19"/>
       <c r="F56" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57" s="19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="19"/>
       <c r="F57" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58" s="35" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -11110,10 +11400,10 @@
         <v>11</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
@@ -11124,38 +11414,38 @@
         <v>9</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="36" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="36" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
@@ -11166,10 +11456,10 @@
         <v>34</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
@@ -11180,10 +11470,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.45">
@@ -11191,13 +11481,13 @@
         <v>12</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.45">
@@ -11205,13 +11495,13 @@
         <v>14</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
@@ -11219,18 +11509,18 @@
         <v>10</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:C41">
-    <sortCondition ref="C25:C41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F14">
+    <sortCondition ref="C3:C14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11241,7 +11531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C14B5BD-8852-4082-A63D-CC662C27D7F9}">
   <dimension ref="C1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11252,13 +11544,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C1" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.45">
@@ -11271,10 +11563,10 @@
         <v>53</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.45">
@@ -11282,10 +11574,10 @@
         <v>54</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.45">
@@ -11293,10 +11585,10 @@
         <v>55</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.45">
@@ -11304,10 +11596,10 @@
         <v>56</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.45">
@@ -11315,10 +11607,10 @@
         <v>57</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.45">
@@ -11326,10 +11618,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.45">
@@ -11337,10 +11629,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.45">
@@ -11348,10 +11640,10 @@
         <v>60</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.45">
@@ -11362,7 +11654,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.45">
@@ -11370,10 +11662,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.45">
@@ -11381,10 +11673,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.45">
@@ -11392,10 +11684,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.45">
@@ -11430,10 +11722,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.45">
@@ -11441,10 +11733,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
@@ -11452,15 +11744,15 @@
         <v>65</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C21" s="19" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>25</v>
@@ -11469,7 +11761,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C22" s="19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>26</v>
@@ -11481,10 +11773,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.45">
@@ -11495,7 +11787,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.45">
@@ -11503,10 +11795,10 @@
         <v>69</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.45">
@@ -11517,7 +11809,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.45">
@@ -11528,7 +11820,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.45">
@@ -11536,10 +11828,10 @@
         <v>35</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.45">
@@ -11547,10 +11839,10 @@
         <v>37</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.45">
@@ -11558,10 +11850,10 @@
         <v>39</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.45">
@@ -11569,142 +11861,142 @@
         <v>41</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C32" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C33" s="31" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" s="31" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C35" s="31" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C36" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C37" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C38" s="35" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C40" s="34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C41" s="34" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C42" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C43" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.45">
@@ -11727,288 +12019,288 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C46" s="32" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C47" s="32" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C48" s="33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C49" s="36" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C50" s="36" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C51" s="34" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C52" s="34" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C53" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C54" s="34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C55" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C56" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C57" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C58" s="34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C59" s="34" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C60" s="34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C61" s="34" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C62" s="34" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C63" s="34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C64" s="34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C65" s="34" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C66" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C67" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C68" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C69" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C70" s="34" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C71" s="34" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.45">
@@ -12035,4 +12327,2212 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06C88D1-CE86-47AD-8027-F9F85984DBB7}">
+  <dimension ref="A2:AB25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E3" s="5"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="X4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="12">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="R6" s="12">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="V6" s="12">
+        <v>2</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="X6" s="12"/>
+      <c r="Z6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="12">
+        <v>3</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="12">
+        <v>3</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="T7" s="43"/>
+      <c r="V7" s="12">
+        <v>3</v>
+      </c>
+      <c r="W7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB7" s="43"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12">
+        <v>4</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="12">
+        <v>4</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="R8" s="12">
+        <v>4</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="T8" s="43"/>
+      <c r="V8" s="12">
+        <v>4</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB8" s="43"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="12">
+        <v>5</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="12">
+        <v>5</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="R9" s="12">
+        <v>5</v>
+      </c>
+      <c r="S9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="T9" s="43"/>
+      <c r="V9" s="12">
+        <v>5</v>
+      </c>
+      <c r="W9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB9" s="43"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="12">
+        <v>6</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="12">
+        <v>6</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="R10" s="12">
+        <v>6</v>
+      </c>
+      <c r="S10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="T10" s="43"/>
+      <c r="V10" s="12">
+        <v>6</v>
+      </c>
+      <c r="W10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="X10" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB10" s="43"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="12">
+        <v>7</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="12">
+        <v>7</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="R11" s="12">
+        <v>7</v>
+      </c>
+      <c r="S11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="T11" s="43"/>
+      <c r="V11" s="12">
+        <v>7</v>
+      </c>
+      <c r="W11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="X11" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB11" s="43"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="12">
+        <v>8</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="R12" s="12">
+        <v>8</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="V12" s="12">
+        <v>8</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="X12" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB12" s="43"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12">
+        <v>9</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="12">
+        <v>9</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="12">
+        <v>9</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="R13" s="12">
+        <v>9</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="V13" s="12">
+        <v>9</v>
+      </c>
+      <c r="W13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="X13" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB13" s="43"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12">
+        <v>10</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="12">
+        <v>10</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="12">
+        <v>10</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="R14" s="12">
+        <v>10</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="T14" s="43"/>
+      <c r="V14" s="12">
+        <v>10</v>
+      </c>
+      <c r="W14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="X14" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB14" s="43"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="12">
+        <v>11</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="12">
+        <v>11</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="12">
+        <v>11</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="R15" s="12">
+        <v>11</v>
+      </c>
+      <c r="S15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="T15" s="43"/>
+      <c r="V15" s="12">
+        <v>11</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="X15" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB15" s="43"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="12">
+        <v>12</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="12">
+        <v>12</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="12">
+        <v>12</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="R16" s="12">
+        <v>12</v>
+      </c>
+      <c r="S16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="T16" s="43"/>
+      <c r="V16" s="12">
+        <v>12</v>
+      </c>
+      <c r="W16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="X16" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB16" s="43"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12">
+        <v>13</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="12">
+        <v>13</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="12">
+        <v>13</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="R17" s="12">
+        <v>13</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="T17" s="43"/>
+      <c r="V17" s="12">
+        <v>13</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Z17" s="12">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB17" s="43"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E18" s="5"/>
+      <c r="F18" s="12">
+        <v>14</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="12">
+        <v>14</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="12">
+        <v>14</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="R18" s="12">
+        <v>14</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="V18" s="12">
+        <v>14</v>
+      </c>
+      <c r="W18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Z18" s="12">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E19" s="5"/>
+      <c r="F19" s="12">
+        <v>15</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="12">
+        <v>15</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="12">
+        <v>15</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="R19" s="12">
+        <v>15</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="T19" s="12"/>
+      <c r="V19" s="12">
+        <v>15</v>
+      </c>
+      <c r="W19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Z19" s="12">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E20" s="5"/>
+      <c r="F20" s="12">
+        <v>16</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="12">
+        <v>16</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="12">
+        <v>16</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="R20" s="12">
+        <v>16</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="V20" s="12">
+        <v>16</v>
+      </c>
+      <c r="W20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Z20" s="12">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E21" s="5"/>
+      <c r="F21" s="12">
+        <v>17</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="12">
+        <v>17</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="12">
+        <v>17</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="R21" s="12">
+        <v>17</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="T21" s="12"/>
+      <c r="V21" s="12">
+        <v>17</v>
+      </c>
+      <c r="W21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Z21" s="12">
+        <v>17</v>
+      </c>
+      <c r="AA21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E22" s="5"/>
+      <c r="F22" s="12">
+        <v>18</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12">
+        <v>18</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="12">
+        <v>18</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="R22" s="12">
+        <v>18</v>
+      </c>
+      <c r="S22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="T22" s="12"/>
+      <c r="V22" s="12">
+        <v>18</v>
+      </c>
+      <c r="W22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Z22" s="12">
+        <v>18</v>
+      </c>
+      <c r="AA22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB22" s="12"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E23" s="5"/>
+      <c r="F23" s="12">
+        <v>19</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12">
+        <v>19</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="12">
+        <v>19</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="R23" s="12">
+        <v>19</v>
+      </c>
+      <c r="S23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="T23" s="12"/>
+      <c r="V23" s="12">
+        <v>19</v>
+      </c>
+      <c r="W23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="X23" s="12"/>
+      <c r="Z23" s="12">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E24" s="5"/>
+      <c r="F24" s="12">
+        <v>20</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="12">
+        <v>20</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="12">
+        <v>20</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="R24" s="12">
+        <v>20</v>
+      </c>
+      <c r="S24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="V24" s="12">
+        <v>20</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="X24" s="12"/>
+      <c r="Z24" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C17">
+    <sortCondition ref="A6:A17"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45349366-BE2D-499D-9A33-215D38C75997}">
+  <dimension ref="C2:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="13" max="13" width="15.86328125" customWidth="1"/>
+    <col min="14" max="14" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="12.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C3" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C4" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C5" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C6" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C7" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C8" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C9" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C10" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C11" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C12" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C15" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C17" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C18" s="48"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C19" s="48"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C20" s="48"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="48"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C22" s="48"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C25" s="48"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C26" s="48"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C27" s="48"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C28" s="48"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C29" s="48"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7946F8D-8D9A-43B3-9B7A-D28B4AF94272}">
+  <dimension ref="B1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G29:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="42"/>
+    <col min="6" max="6" width="16" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="39"/>
+      <c r="C1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C6" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F14" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F15" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F16" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>